--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_5.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_5.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914352483987198</v>
+        <v>0.9260922986303186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8193103272283614</v>
+        <v>0.678745452419467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8131946133288103</v>
+        <v>0.6998568741540329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9841824268129963</v>
+        <v>0.7150324234975448</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03565100719206972</v>
+        <v>0.2590842292328062</v>
       </c>
       <c r="G2" t="n">
-        <v>1.208272673823388</v>
+        <v>2.148230638912199</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6681920365241816</v>
+        <v>1.073594557852657</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04676296771260066</v>
+        <v>0.4088632357789218</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4914466296467375</v>
+        <v>1.274638813794958</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1888147430474372</v>
+        <v>0.5090031721245027</v>
       </c>
       <c r="L2" t="n">
-        <v>1.548144102481935</v>
+        <v>0.8993597257944764</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1917883865049372</v>
+        <v>0.5170194632689634</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6679557605779</v>
+        <v>36.70120412151728</v>
       </c>
       <c r="O2" t="n">
-        <v>278.0031283037943</v>
+        <v>73.6657877097431</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.991320125948969</v>
+        <v>0.925217809711773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8192322268489296</v>
+        <v>0.6757707213277767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8130317498031966</v>
+        <v>0.689048202438957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9843065147264716</v>
+        <v>0.7148892640437148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03613020746256215</v>
+        <v>0.2621497593904924</v>
       </c>
       <c r="G3" t="n">
-        <v>1.208794931420268</v>
+        <v>2.168122679419709</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6687745899119319</v>
+        <v>1.112256549854688</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04639611503407873</v>
+        <v>0.4090686368222393</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4917353142924613</v>
+        <v>1.28865247256296</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1900794767000429</v>
+        <v>0.5120056243738855</v>
       </c>
       <c r="L3" t="n">
-        <v>1.555511939265983</v>
+        <v>0.8981689323734782</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1930730384483016</v>
+        <v>0.5200692011399228</v>
       </c>
       <c r="N3" t="n">
-        <v>136.6412519834511</v>
+        <v>36.67767867559088</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9764245266675</v>
+        <v>73.6422622638167</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9904104023432774</v>
+        <v>0.9229306774771903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8182392645502233</v>
+        <v>0.6725197762938452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8115105834124168</v>
+        <v>0.6869791117738039</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9840401165025561</v>
+        <v>0.7140769206090177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03991695625799248</v>
+        <v>0.2701673256409487</v>
       </c>
       <c r="G4" t="n">
-        <v>1.215434874883887</v>
+        <v>2.189861763830835</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6742157138894566</v>
+        <v>1.119657567191171</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04718369296378851</v>
+        <v>0.4102341636844547</v>
       </c>
       <c r="J4" t="n">
-        <v>0.50158512048598</v>
+        <v>1.309084442953588</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1997922827788713</v>
+        <v>0.5197762265061271</v>
       </c>
       <c r="L4" t="n">
-        <v>1.613734250030248</v>
+        <v>0.895054539543408</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2029388115136276</v>
+        <v>0.5279621824879949</v>
       </c>
       <c r="N4" t="n">
-        <v>136.4419081529761</v>
+        <v>36.61742757467529</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7770806961925</v>
+        <v>73.58201116290111</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9902337559421425</v>
+        <v>0.9198737794178157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8181166359915605</v>
+        <v>0.6685145393557119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8113740881785223</v>
+        <v>0.6850526017357574</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9838365831485427</v>
+        <v>0.7130329620041921</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04065225161861576</v>
+        <v>0.2808833141357721</v>
       </c>
       <c r="G5" t="n">
-        <v>1.216254892620318</v>
+        <v>2.216644801678552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6747039494266484</v>
+        <v>1.126548581891792</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04778541761204155</v>
+        <v>0.4117320052930581</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5048907371017547</v>
+        <v>1.327935184268129</v>
       </c>
       <c r="K5" t="n">
-        <v>0.20162403531974</v>
+        <v>0.5299842583848807</v>
       </c>
       <c r="L5" t="n">
-        <v>1.625039619702882</v>
+        <v>0.8908919549519192</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2047994123259342</v>
+        <v>0.5383309806645508</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4054021083009</v>
+        <v>36.53963189615064</v>
       </c>
       <c r="O5" t="n">
-        <v>277.7405746515173</v>
+        <v>73.50421548437646</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.990047356120934</v>
+        <v>0.9188820956345839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8179528916966213</v>
+        <v>0.6674625898978814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8109723629321176</v>
+        <v>0.684993879428573</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9835649544468792</v>
+        <v>0.7127146465204215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04142814585068115</v>
+        <v>0.2843596721317557</v>
       </c>
       <c r="G6" t="n">
-        <v>1.21734985147455</v>
+        <v>2.223679192546847</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6761408973396699</v>
+        <v>1.126758628179676</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04858845889122744</v>
+        <v>0.412188715141562</v>
       </c>
       <c r="J6" t="n">
-        <v>0.510306512085466</v>
+        <v>1.332972707281984</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2035390523970305</v>
+        <v>0.5332538533679393</v>
       </c>
       <c r="L6" t="n">
-        <v>1.636969208260226</v>
+        <v>0.889541577034327</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2067445890078773</v>
+        <v>0.5416520685001965</v>
       </c>
       <c r="N6" t="n">
-        <v>136.3675895553589</v>
+        <v>36.51503078185123</v>
       </c>
       <c r="O6" t="n">
-        <v>277.7027620985753</v>
+        <v>73.47961437007704</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9899014058248833</v>
+        <v>0.9183691463823888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8177383615120624</v>
+        <v>0.6669421132936991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8110735236967617</v>
+        <v>0.6851144914632268</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9834860846869725</v>
+        <v>0.7125576245423579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04203566785440255</v>
+        <v>0.286157821163286</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218784415806516</v>
+        <v>2.227159621995588</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6757790511501763</v>
+        <v>1.126327205925207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04882162892258515</v>
+        <v>0.4124140057336618</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5117811716570611</v>
+        <v>1.335434478008576</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2050260175060779</v>
+        <v>0.5349372123560727</v>
       </c>
       <c r="L7" t="n">
-        <v>1.64631002720747</v>
+        <v>0.8888430929462315</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2082549723309724</v>
+        <v>0.5433619387096514</v>
       </c>
       <c r="N7" t="n">
-        <v>136.3384735729317</v>
+        <v>36.50242359622188</v>
       </c>
       <c r="O7" t="n">
-        <v>277.6736461161481</v>
+        <v>73.46700718444771</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.989734275677718</v>
+        <v>0.9076840192901332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8176290145665276</v>
+        <v>0.6516622581475011</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8107988179058729</v>
+        <v>0.6745298357579466</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9833645267774213</v>
+        <v>0.709953031364476</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04273135155382377</v>
+        <v>0.3236146472537703</v>
       </c>
       <c r="G8" t="n">
-        <v>1.219515619334803</v>
+        <v>2.329336083715478</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6767616578358282</v>
+        <v>1.164187905649394</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04918100191440573</v>
+        <v>0.4161510006846904</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5139781639988181</v>
+        <v>1.371660676478901</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2067156296795764</v>
+        <v>0.5688713802378972</v>
       </c>
       <c r="L8" t="n">
-        <v>1.657006356626049</v>
+        <v>0.8742931326503942</v>
       </c>
       <c r="M8" t="n">
-        <v>0.209971194207211</v>
+        <v>0.5778305358138918</v>
       </c>
       <c r="N8" t="n">
-        <v>136.3056447994692</v>
+        <v>36.25640366273598</v>
       </c>
       <c r="O8" t="n">
-        <v>277.6408173426856</v>
+        <v>73.2209872509618</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9895838891131439</v>
+        <v>0.9069277927889611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8174390882868634</v>
+        <v>0.6508546384471021</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8106963941738932</v>
+        <v>0.6739703592123464</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9832967177185648</v>
+        <v>0.7097964287598999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04335733964370861</v>
+        <v>0.3262656072559169</v>
       </c>
       <c r="G9" t="n">
-        <v>1.220785657241448</v>
+        <v>2.334736640370793</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6771280215862507</v>
+        <v>1.166189120812692</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04938147216306148</v>
+        <v>0.416375689571841</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5150527832174469</v>
+        <v>1.373545129988961</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2082242532552551</v>
+        <v>0.571196644997077</v>
       </c>
       <c r="L9" t="n">
-        <v>1.666631096758792</v>
+        <v>0.8732633774147556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2115035770961363</v>
+        <v>0.5801924211686167</v>
       </c>
       <c r="N9" t="n">
-        <v>136.2765585576271</v>
+        <v>36.24008696631428</v>
       </c>
       <c r="O9" t="n">
-        <v>277.6117311008435</v>
+        <v>73.2046705545401</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9882883884927881</v>
+        <v>0.9061556365064103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8157872736427816</v>
+        <v>0.6499382901046824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8082006570413914</v>
+        <v>0.6733297389526396</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9827770631675172</v>
+        <v>0.7096375314940637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04874989556170287</v>
+        <v>0.3289724092752529</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23183134937233</v>
+        <v>2.34086426595595</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6860551285980558</v>
+        <v>1.168480582336366</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0509177754066152</v>
+        <v>0.4166036707725923</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5335759737385342</v>
+        <v>1.375412130760045</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2207937851518988</v>
+        <v>0.5735611643715541</v>
       </c>
       <c r="L10" t="n">
-        <v>1.749543136461561</v>
+        <v>0.8722119305619204</v>
       </c>
       <c r="M10" t="n">
-        <v>0.22427106655523</v>
+        <v>0.5825941793595896</v>
       </c>
       <c r="N10" t="n">
-        <v>136.0421044477292</v>
+        <v>36.22356278823732</v>
       </c>
       <c r="O10" t="n">
-        <v>277.3772769909456</v>
+        <v>73.18814637646314</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9879977912116464</v>
+        <v>0.9020428083224477</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8155000207654692</v>
+        <v>0.6455848211221471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8077378209066006</v>
+        <v>0.6703958359325327</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9819996216594927</v>
+        <v>0.7087786169930259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04995951450248209</v>
+        <v>0.3433899719955301</v>
       </c>
       <c r="G11" t="n">
-        <v>1.233752210685596</v>
+        <v>2.369975933088044</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6877106666154216</v>
+        <v>1.178974983321817</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0532161982878227</v>
+        <v>0.4178360164536763</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5465685975993303</v>
+        <v>1.38441435153916</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2235162510925818</v>
+        <v>0.5859948566289043</v>
       </c>
       <c r="L11" t="n">
-        <v>1.768141362454628</v>
+        <v>0.8666114836731202</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2270364086130113</v>
+        <v>0.5952236898408607</v>
       </c>
       <c r="N11" t="n">
-        <v>135.993084622993</v>
+        <v>36.1377770661097</v>
       </c>
       <c r="O11" t="n">
-        <v>277.3282571662094</v>
+        <v>73.10236065433551</v>
       </c>
     </row>
   </sheetData>
